--- a/state_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
+++ b/state_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +732,7 @@
         <v>0.01171</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0214329554967005</v>
+        <v>0.0214869285658454</v>
       </c>
       <c r="H4" t="n">
         <v>0.0748203016845102</v>
@@ -743,7 +743,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.00487</v>
+        <v>0.00507</v>
       </c>
       <c r="M4" t="n">
         <v>0.04492</v>
@@ -813,7 +813,7 @@
         <v>0.01171</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0214329554967005</v>
+        <v>0.0214869285658454</v>
       </c>
       <c r="H5" t="n">
         <v>0.0748203016845102</v>
@@ -824,7 +824,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.00487</v>
+        <v>0.00507</v>
       </c>
       <c r="M5" t="n">
         <v>0.04492</v>
@@ -894,7 +894,7 @@
         <v>0.3465</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5085542379114359</v>
+        <v>0.509260754375506</v>
       </c>
       <c r="H6" t="n">
         <v>2.61</v>
@@ -905,7 +905,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.03503</v>
+        <v>0.03926</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -975,7 +975,7 @@
         <v>0.3465</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5085542379114359</v>
+        <v>0.509260754375506</v>
       </c>
       <c r="H7" t="n">
         <v>2.61</v>
@@ -986,7 +986,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.03503</v>
+        <v>0.03926</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1052,7 +1052,7 @@
         <v>0.37</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5585024583377191</v>
+        <v>0.559342303620627</v>
       </c>
       <c r="H8" t="n">
         <v>2.67</v>
@@ -1063,7 +1063,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.04559</v>
+        <v>0.05056</v>
       </c>
       <c r="M8" t="n">
         <v>1.1318</v>
@@ -1129,7 +1129,7 @@
         <v>0.37</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5585024583377191</v>
+        <v>0.559342303620627</v>
       </c>
       <c r="H9" t="n">
         <v>2.67</v>
@@ -1140,7 +1140,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.04559</v>
+        <v>0.05056</v>
       </c>
       <c r="M9" t="n">
         <v>1.1318</v>
@@ -1680,7 +1680,7 @@
         <v>0.01171</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0216693079916025</v>
+        <v>0.0217050965678054</v>
       </c>
       <c r="H16" t="n">
         <v>0.08133005359678951</v>
@@ -1691,7 +1691,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>0.00533</v>
+        <v>0.00534</v>
       </c>
       <c r="M16" t="n">
         <v>0.04542</v>
@@ -1761,7 +1761,7 @@
         <v>0.01171</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0216693079916025</v>
+        <v>0.0217050965678054</v>
       </c>
       <c r="H17" t="n">
         <v>0.08133005359678951</v>
@@ -1772,7 +1772,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.00533</v>
+        <v>0.00534</v>
       </c>
       <c r="M17" t="n">
         <v>0.04542</v>
@@ -1842,7 +1842,7 @@
         <v>0.3115</v>
       </c>
       <c r="G18" t="n">
-        <v>0.469136786446355</v>
+        <v>0.46971246652819</v>
       </c>
       <c r="H18" t="n">
         <v>2.61</v>
@@ -1853,7 +1853,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.04418</v>
+        <v>0.04837</v>
       </c>
       <c r="M18" t="n">
         <v>0.81624</v>
@@ -1923,7 +1923,7 @@
         <v>0.3115</v>
       </c>
       <c r="G19" t="n">
-        <v>0.469136786446355</v>
+        <v>0.46971246652819</v>
       </c>
       <c r="H19" t="n">
         <v>2.61</v>
@@ -1934,7 +1934,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.04418</v>
+        <v>0.04837</v>
       </c>
       <c r="M19" t="n">
         <v>0.81624</v>
@@ -2000,7 +2000,7 @@
         <v>0.335</v>
       </c>
       <c r="G20" t="n">
-        <v>0.516927929015919</v>
+        <v>0.517612247394585</v>
       </c>
       <c r="H20" t="n">
         <v>2.67</v>
@@ -2011,7 +2011,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.05689</v>
+        <v>0.06172</v>
       </c>
       <c r="M20" t="n">
         <v>0.8648</v>
@@ -2077,7 +2077,7 @@
         <v>0.335</v>
       </c>
       <c r="G21" t="n">
-        <v>0.516927929015919</v>
+        <v>0.517612247394585</v>
       </c>
       <c r="H21" t="n">
         <v>2.67</v>
@@ -2088,7 +2088,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>0.05689</v>
+        <v>0.06172</v>
       </c>
       <c r="M21" t="n">
         <v>0.8648</v>
@@ -2628,10 +2628,10 @@
         <v>293</v>
       </c>
       <c r="G28" t="n">
-        <v>1127.71340670253</v>
+        <v>1147.48903097379</v>
       </c>
       <c r="H28" t="n">
-        <v>12091.1033016137</v>
+        <v>12981.0063938204</v>
       </c>
       <c r="I28" t="n">
         <v>6375</v>
@@ -2713,10 +2713,10 @@
         <v>293</v>
       </c>
       <c r="G29" t="n">
-        <v>1127.71340670253</v>
+        <v>1147.48903097379</v>
       </c>
       <c r="H29" t="n">
-        <v>12091.1033016137</v>
+        <v>12981.0063938204</v>
       </c>
       <c r="I29" t="n">
         <v>6375</v>
@@ -2798,10 +2798,10 @@
         <v>293</v>
       </c>
       <c r="G30" t="n">
-        <v>1127.71340670253</v>
+        <v>1147.48903097379</v>
       </c>
       <c r="H30" t="n">
-        <v>12091.1033016137</v>
+        <v>12981.0063938204</v>
       </c>
       <c r="I30" t="n">
         <v>6375</v>
@@ -2883,10 +2883,10 @@
         <v>293</v>
       </c>
       <c r="G31" t="n">
-        <v>1127.71340670253</v>
+        <v>1147.48903097379</v>
       </c>
       <c r="H31" t="n">
-        <v>12091.1033016137</v>
+        <v>12981.0063938204</v>
       </c>
       <c r="I31" t="n">
         <v>6375</v>
@@ -2968,7 +2968,7 @@
         <v>0.01494</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0353015036162354</v>
+        <v>0.035285702905245</v>
       </c>
       <c r="H32" t="n">
         <v>0.5</v>
@@ -3049,7 +3049,7 @@
         <v>0.01494</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0353015036162354</v>
+        <v>0.035285702905245</v>
       </c>
       <c r="H33" t="n">
         <v>0.5</v>
@@ -3130,7 +3130,7 @@
         <v>0.366</v>
       </c>
       <c r="G34" t="n">
-        <v>0.513217543448086</v>
+        <v>0.513611716624731</v>
       </c>
       <c r="H34" t="n">
         <v>2.61</v>
@@ -3211,7 +3211,7 @@
         <v>0.366</v>
       </c>
       <c r="G35" t="n">
-        <v>0.513217543448086</v>
+        <v>0.513611716624731</v>
       </c>
       <c r="H35" t="n">
         <v>2.61</v>
@@ -3288,7 +3288,7 @@
         <v>0.42</v>
       </c>
       <c r="G36" t="n">
-        <v>0.577771880790345</v>
+        <v>0.578233401043477</v>
       </c>
       <c r="H36" t="n">
         <v>2.67</v>
@@ -3365,7 +3365,7 @@
         <v>0.42</v>
       </c>
       <c r="G37" t="n">
-        <v>0.577771880790345</v>
+        <v>0.578233401043477</v>
       </c>
       <c r="H37" t="n">
         <v>2.67</v>
@@ -3724,6 +3724,1294 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0460555555555556</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.06032</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.06772</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0460555555555556</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.06032</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.06772</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>931.722340626303</v>
+      </c>
+      <c r="H44" t="n">
+        <v>12981.0063938204</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J44" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K44" t="n">
+        <v>48.1481481481481</v>
+      </c>
+      <c r="L44" t="n">
+        <v>222</v>
+      </c>
+      <c r="M44" t="n">
+        <v>740.16</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2696</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>250</v>
+      </c>
+      <c r="G45" t="n">
+        <v>931.722340626303</v>
+      </c>
+      <c r="H45" t="n">
+        <v>12981.0063938204</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J45" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K45" t="n">
+        <v>48.1481481481481</v>
+      </c>
+      <c r="L45" t="n">
+        <v>222</v>
+      </c>
+      <c r="M45" t="n">
+        <v>740.16</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2696</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>250</v>
+      </c>
+      <c r="G46" t="n">
+        <v>931.722340626303</v>
+      </c>
+      <c r="H46" t="n">
+        <v>12981.0063938204</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J46" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K46" t="n">
+        <v>48.1481481481481</v>
+      </c>
+      <c r="L46" t="n">
+        <v>222</v>
+      </c>
+      <c r="M46" t="n">
+        <v>740.16</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2696</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>250</v>
+      </c>
+      <c r="G47" t="n">
+        <v>931.722340626303</v>
+      </c>
+      <c r="H47" t="n">
+        <v>12981.0063938204</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J47" t="n">
+        <v>27.7777777777778</v>
+      </c>
+      <c r="K47" t="n">
+        <v>48.1481481481481</v>
+      </c>
+      <c r="L47" t="n">
+        <v>222</v>
+      </c>
+      <c r="M47" t="n">
+        <v>740.16</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2696</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0361994486818432</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.08210000000000001</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>0.009429999999999999</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.07471</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0361994486818432</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.08210000000000001</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>0.009429999999999999</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0622</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.07471</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.494415203353902</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.77772</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.2606</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.494415203353902</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.77772</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.2606</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.5599327825056351</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.9092</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.4442</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.5599327825056351</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.9092</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.4442</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.46740740740741</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.0128</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.7636</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.46740740740741</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.0128</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.7636</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.158314814814815</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.22544</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.34036</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kaitoke at Vector Gas Line</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.158314814814815</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.22544</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.34036</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1773468</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5573594</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Kaitoke Lakes</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>West_4</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
+++ b/state_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
@@ -2628,10 +2628,10 @@
         <v>293</v>
       </c>
       <c r="G28" t="n">
-        <v>1147.48903097379</v>
+        <v>1105.06056806593</v>
       </c>
       <c r="H28" t="n">
-        <v>12981.0063938204</v>
+        <v>11071.7255629668</v>
       </c>
       <c r="I28" t="n">
         <v>6375</v>
@@ -2713,10 +2713,10 @@
         <v>293</v>
       </c>
       <c r="G29" t="n">
-        <v>1147.48903097379</v>
+        <v>1105.06056806593</v>
       </c>
       <c r="H29" t="n">
-        <v>12981.0063938204</v>
+        <v>11071.7255629668</v>
       </c>
       <c r="I29" t="n">
         <v>6375</v>
@@ -2798,10 +2798,10 @@
         <v>293</v>
       </c>
       <c r="G30" t="n">
-        <v>1147.48903097379</v>
+        <v>1105.06056806593</v>
       </c>
       <c r="H30" t="n">
-        <v>12981.0063938204</v>
+        <v>11071.7255629668</v>
       </c>
       <c r="I30" t="n">
         <v>6375</v>
@@ -2883,10 +2883,10 @@
         <v>293</v>
       </c>
       <c r="G31" t="n">
-        <v>1147.48903097379</v>
+        <v>1105.06056806593</v>
       </c>
       <c r="H31" t="n">
-        <v>12981.0063938204</v>
+        <v>11071.7255629668</v>
       </c>
       <c r="I31" t="n">
         <v>6375</v>
@@ -3916,10 +3916,10 @@
         <v>250</v>
       </c>
       <c r="G44" t="n">
-        <v>931.722340626303</v>
+        <v>896.365288203088</v>
       </c>
       <c r="H44" t="n">
-        <v>12981.0063938204</v>
+        <v>11071.7255629668</v>
       </c>
       <c r="I44" t="n">
         <v>5860</v>
@@ -4001,10 +4001,10 @@
         <v>250</v>
       </c>
       <c r="G45" t="n">
-        <v>931.722340626303</v>
+        <v>896.365288203088</v>
       </c>
       <c r="H45" t="n">
-        <v>12981.0063938204</v>
+        <v>11071.7255629668</v>
       </c>
       <c r="I45" t="n">
         <v>5860</v>
@@ -4086,10 +4086,10 @@
         <v>250</v>
       </c>
       <c r="G46" t="n">
-        <v>931.722340626303</v>
+        <v>896.365288203088</v>
       </c>
       <c r="H46" t="n">
-        <v>12981.0063938204</v>
+        <v>11071.7255629668</v>
       </c>
       <c r="I46" t="n">
         <v>5860</v>
@@ -4171,10 +4171,10 @@
         <v>250</v>
       </c>
       <c r="G47" t="n">
-        <v>931.722340626303</v>
+        <v>896.365288203088</v>
       </c>
       <c r="H47" t="n">
-        <v>12981.0063938204</v>
+        <v>11071.7255629668</v>
       </c>
       <c r="I47" t="n">
         <v>5860</v>

--- a/state_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
+++ b/state_results/Rivers/KaitokeatVectorGasLine_807b3eac70.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="59">
   <si>
     <t>site name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +633,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>0.042</v>
@@ -645,7 +648,7 @@
         <v>0.1099</v>
       </c>
       <c r="L2">
-        <v>0.0455</v>
+        <v>0.043</v>
       </c>
       <c r="M2">
         <v>0.063</v>
@@ -660,19 +663,19 @@
         <v>5573594</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -689,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>0.042</v>
@@ -704,7 +707,7 @@
         <v>0.1099</v>
       </c>
       <c r="L3">
-        <v>0.0455</v>
+        <v>0.043</v>
       </c>
       <c r="M3">
         <v>0.063</v>
@@ -719,19 +722,19 @@
         <v>5573594</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -748,13 +751,13 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>0.01171</v>
       </c>
       <c r="G4">
-        <v>0.0214869285658454</v>
+        <v>0.0211551462640611</v>
       </c>
       <c r="H4">
         <v>0.0748203016845102</v>
@@ -763,7 +766,7 @@
         <v>0.06188</v>
       </c>
       <c r="L4">
-        <v>0.00507</v>
+        <v>0.00447</v>
       </c>
       <c r="M4">
         <v>0.04492</v>
@@ -778,19 +781,19 @@
         <v>5573594</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -807,13 +810,13 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>0.01171</v>
       </c>
       <c r="G5">
-        <v>0.0214869285658454</v>
+        <v>0.0211551462640611</v>
       </c>
       <c r="H5">
         <v>0.0748203016845102</v>
@@ -822,7 +825,7 @@
         <v>0.06188</v>
       </c>
       <c r="L5">
-        <v>0.00507</v>
+        <v>0.00447</v>
       </c>
       <c r="M5">
         <v>0.04492</v>
@@ -837,19 +840,19 @@
         <v>5573594</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -866,13 +869,13 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>0.3465</v>
       </c>
       <c r="G6">
-        <v>0.509260754375506</v>
+        <v>0.508754390819835</v>
       </c>
       <c r="H6">
         <v>2.61</v>
@@ -881,7 +884,7 @@
         <v>1.939</v>
       </c>
       <c r="L6">
-        <v>0.03926</v>
+        <v>0.04589</v>
       </c>
       <c r="M6">
         <v>1.11</v>
@@ -896,19 +899,19 @@
         <v>5573594</v>
       </c>
       <c r="Q6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -925,13 +928,13 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>0.3465</v>
       </c>
       <c r="G7">
-        <v>0.509260754375506</v>
+        <v>0.508754390819835</v>
       </c>
       <c r="H7">
         <v>2.61</v>
@@ -940,7 +943,7 @@
         <v>1.939</v>
       </c>
       <c r="L7">
-        <v>0.03926</v>
+        <v>0.04589</v>
       </c>
       <c r="M7">
         <v>1.11</v>
@@ -955,19 +958,19 @@
         <v>5573594</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -981,13 +984,13 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>0.37</v>
       </c>
       <c r="G8">
-        <v>0.559342303620627</v>
+        <v>0.558692416751865</v>
       </c>
       <c r="H8">
         <v>2.67</v>
@@ -996,7 +999,7 @@
         <v>2.094</v>
       </c>
       <c r="L8">
-        <v>0.05056</v>
+        <v>0.0585</v>
       </c>
       <c r="M8">
         <v>1.1318</v>
@@ -1011,19 +1014,19 @@
         <v>5573594</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1037,13 +1040,13 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>0.37</v>
       </c>
       <c r="G9">
-        <v>0.559342303620627</v>
+        <v>0.558692416751865</v>
       </c>
       <c r="H9">
         <v>2.67</v>
@@ -1052,7 +1055,7 @@
         <v>2.094</v>
       </c>
       <c r="L9">
-        <v>0.05056</v>
+        <v>0.0585</v>
       </c>
       <c r="M9">
         <v>1.1318</v>
@@ -1067,19 +1070,19 @@
         <v>5573594</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1093,7 +1096,7 @@
         <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10">
         <v>1.24</v>
@@ -1108,7 +1111,7 @@
         <v>2.847</v>
       </c>
       <c r="L10">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M10">
         <v>2.0476</v>
@@ -1123,19 +1126,19 @@
         <v>5573594</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1149,7 +1152,7 @@
         <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>1.24</v>
@@ -1164,7 +1167,7 @@
         <v>2.847</v>
       </c>
       <c r="L11">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M11">
         <v>2.0476</v>
@@ -1179,19 +1182,19 @@
         <v>5573594</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1205,7 +1208,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>0.138</v>
@@ -1220,7 +1223,7 @@
         <v>0.3047</v>
       </c>
       <c r="L12">
-        <v>0.08</v>
+        <v>0.119</v>
       </c>
       <c r="M12">
         <v>0.21152</v>
@@ -1235,19 +1238,19 @@
         <v>5573594</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1261,7 +1264,7 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>0.138</v>
@@ -1276,7 +1279,7 @@
         <v>0.3047</v>
       </c>
       <c r="L13">
-        <v>0.08</v>
+        <v>0.119</v>
       </c>
       <c r="M13">
         <v>0.21152</v>
@@ -1291,19 +1294,19 @@
         <v>5573594</v>
       </c>
       <c r="Q13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1320,7 +1323,7 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>0.0415</v>
@@ -1350,19 +1353,19 @@
         <v>5573594</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1379,7 +1382,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>0.0415</v>
@@ -1409,19 +1412,19 @@
         <v>5573594</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1438,13 +1441,13 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>0.01171</v>
       </c>
       <c r="G16">
-        <v>0.0217050965678054</v>
+        <v>0.0213957935506235</v>
       </c>
       <c r="H16">
         <v>0.08133005359678951</v>
@@ -1453,7 +1456,7 @@
         <v>0.06916</v>
       </c>
       <c r="L16">
-        <v>0.00534</v>
+        <v>0.00731</v>
       </c>
       <c r="M16">
         <v>0.04542</v>
@@ -1468,19 +1471,19 @@
         <v>5573594</v>
       </c>
       <c r="Q16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1497,13 +1500,13 @@
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>0.01171</v>
       </c>
       <c r="G17">
-        <v>0.0217050965678054</v>
+        <v>0.0213957935506235</v>
       </c>
       <c r="H17">
         <v>0.08133005359678951</v>
@@ -1512,7 +1515,7 @@
         <v>0.06916</v>
       </c>
       <c r="L17">
-        <v>0.00534</v>
+        <v>0.00731</v>
       </c>
       <c r="M17">
         <v>0.04542</v>
@@ -1527,19 +1530,19 @@
         <v>5573594</v>
       </c>
       <c r="Q17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1556,13 +1559,13 @@
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>0.3115</v>
       </c>
       <c r="G18">
-        <v>0.46971246652819</v>
+        <v>0.469299874001347</v>
       </c>
       <c r="H18">
         <v>2.61</v>
@@ -1571,7 +1574,7 @@
         <v>1.73</v>
       </c>
       <c r="L18">
-        <v>0.04837</v>
+        <v>0.101</v>
       </c>
       <c r="M18">
         <v>0.81624</v>
@@ -1586,19 +1589,19 @@
         <v>5573594</v>
       </c>
       <c r="Q18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1615,13 +1618,13 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>0.3115</v>
       </c>
       <c r="G19">
-        <v>0.46971246652819</v>
+        <v>0.469299874001347</v>
       </c>
       <c r="H19">
         <v>2.61</v>
@@ -1630,7 +1633,7 @@
         <v>1.73</v>
       </c>
       <c r="L19">
-        <v>0.04837</v>
+        <v>0.101</v>
       </c>
       <c r="M19">
         <v>0.81624</v>
@@ -1645,19 +1648,19 @@
         <v>5573594</v>
       </c>
       <c r="Q19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1671,13 +1674,13 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>0.335</v>
       </c>
       <c r="G20">
-        <v>0.517612247394585</v>
+        <v>0.5170827099459649</v>
       </c>
       <c r="H20">
         <v>2.67</v>
@@ -1686,7 +1689,7 @@
         <v>1.882</v>
       </c>
       <c r="L20">
-        <v>0.06172</v>
+        <v>0.13</v>
       </c>
       <c r="M20">
         <v>0.8648</v>
@@ -1701,19 +1704,19 @@
         <v>5573594</v>
       </c>
       <c r="Q20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1727,13 +1730,13 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21">
         <v>0.335</v>
       </c>
       <c r="G21">
-        <v>0.517612247394585</v>
+        <v>0.5170827099459649</v>
       </c>
       <c r="H21">
         <v>2.67</v>
@@ -1742,7 +1745,7 @@
         <v>1.882</v>
       </c>
       <c r="L21">
-        <v>0.06172</v>
+        <v>0.13</v>
       </c>
       <c r="M21">
         <v>0.8648</v>
@@ -1757,19 +1760,19 @@
         <v>5573594</v>
       </c>
       <c r="Q21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1783,7 +1786,7 @@
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>1.15</v>
@@ -1798,7 +1801,7 @@
         <v>2.732</v>
       </c>
       <c r="L22">
-        <v>0.775</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M22">
         <v>1.9652</v>
@@ -1813,19 +1816,19 @@
         <v>5573594</v>
       </c>
       <c r="Q22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1839,7 +1842,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>1.15</v>
@@ -1854,7 +1857,7 @@
         <v>2.732</v>
       </c>
       <c r="L23">
-        <v>0.775</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M23">
         <v>1.9652</v>
@@ -1869,19 +1872,19 @@
         <v>5573594</v>
       </c>
       <c r="Q23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1895,7 +1898,7 @@
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>0.1375</v>
@@ -1910,7 +1913,7 @@
         <v>0.2988</v>
       </c>
       <c r="L24">
-        <v>0.08</v>
+        <v>0.119</v>
       </c>
       <c r="M24">
         <v>0.21032</v>
@@ -1925,19 +1928,19 @@
         <v>5573594</v>
       </c>
       <c r="Q24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1951,7 +1954,7 @@
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>0.1375</v>
@@ -1966,7 +1969,7 @@
         <v>0.2988</v>
       </c>
       <c r="L25">
-        <v>0.08</v>
+        <v>0.119</v>
       </c>
       <c r="M25">
         <v>0.21032</v>
@@ -1981,19 +1984,19 @@
         <v>5573594</v>
       </c>
       <c r="Q25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2010,7 +2013,7 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26">
         <v>0.042</v>
@@ -2025,7 +2028,7 @@
         <v>0.11155</v>
       </c>
       <c r="L26">
-        <v>0.049</v>
+        <v>0.043</v>
       </c>
       <c r="M26">
         <v>0.06398</v>
@@ -2040,19 +2043,19 @@
         <v>5573594</v>
       </c>
       <c r="Q26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2069,7 +2072,7 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27">
         <v>0.042</v>
@@ -2084,7 +2087,7 @@
         <v>0.11155</v>
       </c>
       <c r="L27">
-        <v>0.049</v>
+        <v>0.043</v>
       </c>
       <c r="M27">
         <v>0.06398</v>
@@ -2099,19 +2102,19 @@
         <v>5573594</v>
       </c>
       <c r="Q27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2128,16 +2131,16 @@
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28">
-        <v>293</v>
+        <v>293.2</v>
       </c>
       <c r="G28">
-        <v>1054.48316014121</v>
+        <v>1149.5528542868</v>
       </c>
       <c r="H28">
-        <v>8795.742206354431</v>
+        <v>13072.878442906</v>
       </c>
       <c r="I28">
         <v>6375</v>
@@ -2149,7 +2152,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L28">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="M28">
         <v>1401</v>
@@ -2164,19 +2167,19 @@
         <v>5573594</v>
       </c>
       <c r="Q28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2193,16 +2196,16 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29">
-        <v>293</v>
+        <v>293.2</v>
       </c>
       <c r="G29">
-        <v>1054.48316014121</v>
+        <v>1149.5528542868</v>
       </c>
       <c r="H29">
-        <v>8795.742206354431</v>
+        <v>13072.878442906</v>
       </c>
       <c r="I29">
         <v>6375</v>
@@ -2214,7 +2217,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L29">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="M29">
         <v>1401</v>
@@ -2229,19 +2232,19 @@
         <v>5573594</v>
       </c>
       <c r="Q29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2258,16 +2261,16 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30">
-        <v>293</v>
+        <v>293.2</v>
       </c>
       <c r="G30">
-        <v>1054.48316014121</v>
+        <v>1149.5528542868</v>
       </c>
       <c r="H30">
-        <v>8795.742206354431</v>
+        <v>13072.878442906</v>
       </c>
       <c r="I30">
         <v>6375</v>
@@ -2279,7 +2282,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L30">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="M30">
         <v>1401</v>
@@ -2294,19 +2297,19 @@
         <v>5573594</v>
       </c>
       <c r="Q30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2323,16 +2326,16 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31">
-        <v>293</v>
+        <v>293.2</v>
       </c>
       <c r="G31">
-        <v>1054.48316014121</v>
+        <v>1149.5528542868</v>
       </c>
       <c r="H31">
-        <v>8795.742206354431</v>
+        <v>13072.878442906</v>
       </c>
       <c r="I31">
         <v>6375</v>
@@ -2344,7 +2347,7 @@
         <v>53.3333333333333</v>
       </c>
       <c r="L31">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="M31">
         <v>1401</v>
@@ -2359,19 +2362,19 @@
         <v>5573594</v>
       </c>
       <c r="Q31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2388,13 +2391,13 @@
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32">
         <v>0.01494</v>
       </c>
       <c r="G32">
-        <v>0.035285702905245</v>
+        <v>0.0349918782459683</v>
       </c>
       <c r="H32">
         <v>0.5</v>
@@ -2403,7 +2406,7 @@
         <v>0.08068</v>
       </c>
       <c r="L32">
-        <v>0.00898</v>
+        <v>0.01047</v>
       </c>
       <c r="M32">
         <v>0.06297999999999999</v>
@@ -2418,19 +2421,19 @@
         <v>5573594</v>
       </c>
       <c r="Q32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2447,13 +2450,13 @@
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33">
         <v>0.01494</v>
       </c>
       <c r="G33">
-        <v>0.035285702905245</v>
+        <v>0.0349918782459683</v>
       </c>
       <c r="H33">
         <v>0.5</v>
@@ -2462,7 +2465,7 @@
         <v>0.08068</v>
       </c>
       <c r="L33">
-        <v>0.00898</v>
+        <v>0.01047</v>
       </c>
       <c r="M33">
         <v>0.06297999999999999</v>
@@ -2477,19 +2480,19 @@
         <v>5573594</v>
       </c>
       <c r="Q33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2506,13 +2509,13 @@
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>0.366</v>
       </c>
       <c r="G34">
-        <v>0.513611716624731</v>
+        <v>0.513271793574145</v>
       </c>
       <c r="H34">
         <v>2.61</v>
@@ -2521,7 +2524,7 @@
         <v>1.723</v>
       </c>
       <c r="L34">
-        <v>0.132</v>
+        <v>0.147</v>
       </c>
       <c r="M34">
         <v>0.99117</v>
@@ -2536,19 +2539,19 @@
         <v>5573594</v>
       </c>
       <c r="Q34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2565,13 +2568,13 @@
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35">
         <v>0.366</v>
       </c>
       <c r="G35">
-        <v>0.513611716624731</v>
+        <v>0.513271793574145</v>
       </c>
       <c r="H35">
         <v>2.61</v>
@@ -2580,7 +2583,7 @@
         <v>1.723</v>
       </c>
       <c r="L35">
-        <v>0.132</v>
+        <v>0.147</v>
       </c>
       <c r="M35">
         <v>0.99117</v>
@@ -2595,19 +2598,19 @@
         <v>5573594</v>
       </c>
       <c r="Q35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2621,13 +2624,13 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36">
         <v>0.42</v>
       </c>
       <c r="G36">
-        <v>0.578233401043477</v>
+        <v>0.577800384531532</v>
       </c>
       <c r="H36">
         <v>2.67</v>
@@ -2636,7 +2639,7 @@
         <v>1.8975</v>
       </c>
       <c r="L36">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="M36">
         <v>1.1249</v>
@@ -2651,19 +2654,19 @@
         <v>5573594</v>
       </c>
       <c r="Q36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2677,13 +2680,13 @@
         <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>0.42</v>
       </c>
       <c r="G37">
-        <v>0.578233401043477</v>
+        <v>0.577800384531532</v>
       </c>
       <c r="H37">
         <v>2.67</v>
@@ -2692,7 +2695,7 @@
         <v>1.8975</v>
       </c>
       <c r="L37">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="M37">
         <v>1.1249</v>
@@ -2707,19 +2710,19 @@
         <v>5573594</v>
       </c>
       <c r="Q37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2733,7 +2736,7 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38">
         <v>1.29</v>
@@ -2748,7 +2751,7 @@
         <v>3.0065</v>
       </c>
       <c r="L38">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>2.1037</v>
@@ -2763,19 +2766,19 @@
         <v>5573594</v>
       </c>
       <c r="Q38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2789,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39">
         <v>1.29</v>
@@ -2804,7 +2807,7 @@
         <v>3.0065</v>
       </c>
       <c r="L39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>2.1037</v>
@@ -2819,19 +2822,19 @@
         <v>5573594</v>
       </c>
       <c r="Q39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2845,7 +2848,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40">
         <v>0.141</v>
@@ -2860,7 +2863,7 @@
         <v>0.3441</v>
       </c>
       <c r="L40">
-        <v>0.131</v>
+        <v>0.127</v>
       </c>
       <c r="M40">
         <v>0.24582</v>
@@ -2875,19 +2878,19 @@
         <v>5573594</v>
       </c>
       <c r="Q40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2901,7 +2904,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41">
         <v>0.141</v>
@@ -2916,7 +2919,7 @@
         <v>0.3441</v>
       </c>
       <c r="L41">
-        <v>0.131</v>
+        <v>0.127</v>
       </c>
       <c r="M41">
         <v>0.24582</v>
@@ -2931,19 +2934,19 @@
         <v>5573594</v>
       </c>
       <c r="Q41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2960,7 +2963,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42">
         <v>0.0375</v>
@@ -2975,7 +2978,7 @@
         <v>0.119</v>
       </c>
       <c r="L42">
-        <v>0.048</v>
+        <v>0.0435</v>
       </c>
       <c r="M42">
         <v>0.06032</v>
@@ -2990,19 +2993,19 @@
         <v>5573594</v>
       </c>
       <c r="Q42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3019,7 +3022,7 @@
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43">
         <v>0.0375</v>
@@ -3034,7 +3037,7 @@
         <v>0.119</v>
       </c>
       <c r="L43">
-        <v>0.048</v>
+        <v>0.0435</v>
       </c>
       <c r="M43">
         <v>0.06032</v>
@@ -3049,19 +3052,19 @@
         <v>5573594</v>
       </c>
       <c r="Q43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3078,16 +3081,16 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44">
         <v>250</v>
       </c>
       <c r="G44">
-        <v>854.217448265823</v>
+        <v>933.449600794556</v>
       </c>
       <c r="H44">
-        <v>8795.742206354431</v>
+        <v>13072.878442906</v>
       </c>
       <c r="I44">
         <v>5860</v>
@@ -3099,10 +3102,10 @@
         <v>48.1481481481481</v>
       </c>
       <c r="L44">
-        <v>222</v>
+        <v>274.6</v>
       </c>
       <c r="M44">
-        <v>740.16</v>
+        <v>740.096</v>
       </c>
       <c r="N44">
         <v>2696</v>
@@ -3114,19 +3117,19 @@
         <v>5573594</v>
       </c>
       <c r="Q44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3143,16 +3146,16 @@
         <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45">
         <v>250</v>
       </c>
       <c r="G45">
-        <v>854.217448265823</v>
+        <v>933.449600794556</v>
       </c>
       <c r="H45">
-        <v>8795.742206354431</v>
+        <v>13072.878442906</v>
       </c>
       <c r="I45">
         <v>5860</v>
@@ -3164,10 +3167,10 @@
         <v>48.1481481481481</v>
       </c>
       <c r="L45">
-        <v>222</v>
+        <v>274.6</v>
       </c>
       <c r="M45">
-        <v>740.16</v>
+        <v>740.096</v>
       </c>
       <c r="N45">
         <v>2696</v>
@@ -3179,19 +3182,19 @@
         <v>5573594</v>
       </c>
       <c r="Q45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3208,16 +3211,16 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46">
         <v>250</v>
       </c>
       <c r="G46">
-        <v>854.217448265823</v>
+        <v>933.449600794556</v>
       </c>
       <c r="H46">
-        <v>8795.742206354431</v>
+        <v>13072.878442906</v>
       </c>
       <c r="I46">
         <v>5860</v>
@@ -3229,10 +3232,10 @@
         <v>48.1481481481481</v>
       </c>
       <c r="L46">
-        <v>222</v>
+        <v>274.6</v>
       </c>
       <c r="M46">
-        <v>740.16</v>
+        <v>740.096</v>
       </c>
       <c r="N46">
         <v>2696</v>
@@ -3244,19 +3247,19 @@
         <v>5573594</v>
       </c>
       <c r="Q46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3273,16 +3276,16 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47">
         <v>250</v>
       </c>
       <c r="G47">
-        <v>854.217448265823</v>
+        <v>933.449600794556</v>
       </c>
       <c r="H47">
-        <v>8795.742206354431</v>
+        <v>13072.878442906</v>
       </c>
       <c r="I47">
         <v>5860</v>
@@ -3294,10 +3297,10 @@
         <v>48.1481481481481</v>
       </c>
       <c r="L47">
-        <v>222</v>
+        <v>274.6</v>
       </c>
       <c r="M47">
-        <v>740.16</v>
+        <v>740.096</v>
       </c>
       <c r="N47">
         <v>2696</v>
@@ -3309,19 +3312,19 @@
         <v>5573594</v>
       </c>
       <c r="Q47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3338,13 +3341,13 @@
         <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48">
         <v>0.0175</v>
       </c>
       <c r="G48">
-        <v>0.0361994486818432</v>
+        <v>0.0358835556480915</v>
       </c>
       <c r="H48">
         <v>0.5</v>
@@ -3353,7 +3356,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="L48">
-        <v>0.009429999999999999</v>
+        <v>0.009950000000000001</v>
       </c>
       <c r="M48">
         <v>0.0622</v>
@@ -3368,19 +3371,19 @@
         <v>5573594</v>
       </c>
       <c r="Q48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3397,13 +3400,13 @@
         <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49">
         <v>0.0175</v>
       </c>
       <c r="G49">
-        <v>0.0361994486818432</v>
+        <v>0.0358835556480915</v>
       </c>
       <c r="H49">
         <v>0.5</v>
@@ -3412,7 +3415,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="L49">
-        <v>0.009429999999999999</v>
+        <v>0.009950000000000001</v>
       </c>
       <c r="M49">
         <v>0.0622</v>
@@ -3427,19 +3430,19 @@
         <v>5573594</v>
       </c>
       <c r="Q49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3456,13 +3459,13 @@
         <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50">
         <v>0.353</v>
       </c>
       <c r="G50">
-        <v>0.494415203353902</v>
+        <v>0.494081575174624</v>
       </c>
       <c r="H50">
         <v>2.31</v>
@@ -3471,7 +3474,7 @@
         <v>1.704</v>
       </c>
       <c r="L50">
-        <v>0.147</v>
+        <v>0.214</v>
       </c>
       <c r="M50">
         <v>0.77772</v>
@@ -3486,19 +3489,19 @@
         <v>5573594</v>
       </c>
       <c r="Q50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3515,13 +3518,13 @@
         <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51">
         <v>0.353</v>
       </c>
       <c r="G51">
-        <v>0.494415203353902</v>
+        <v>0.494081575174624</v>
       </c>
       <c r="H51">
         <v>2.31</v>
@@ -3530,7 +3533,7 @@
         <v>1.704</v>
       </c>
       <c r="L51">
-        <v>0.147</v>
+        <v>0.214</v>
       </c>
       <c r="M51">
         <v>0.77772</v>
@@ -3545,19 +3548,19 @@
         <v>5573594</v>
       </c>
       <c r="Q51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3571,13 +3574,13 @@
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F52">
         <v>0.42</v>
       </c>
       <c r="G52">
-        <v>0.5599327825056351</v>
+        <v>0.559507784817985</v>
       </c>
       <c r="H52">
         <v>2.43</v>
@@ -3586,7 +3589,7 @@
         <v>1.88</v>
       </c>
       <c r="L52">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="M52">
         <v>0.9092</v>
@@ -3601,19 +3604,19 @@
         <v>5573594</v>
       </c>
       <c r="Q52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3627,13 +3630,13 @@
         <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F53">
         <v>0.42</v>
       </c>
       <c r="G53">
-        <v>0.5599327825056351</v>
+        <v>0.559507784817985</v>
       </c>
       <c r="H53">
         <v>2.43</v>
@@ -3642,7 +3645,7 @@
         <v>1.88</v>
       </c>
       <c r="L53">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="M53">
         <v>0.9092</v>
@@ -3657,19 +3660,19 @@
         <v>5573594</v>
       </c>
       <c r="Q53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3683,7 +3686,7 @@
         <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F54">
         <v>1.29</v>
@@ -3698,7 +3701,7 @@
         <v>2.996</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="M54">
         <v>2.0128</v>
@@ -3713,19 +3716,19 @@
         <v>5573594</v>
       </c>
       <c r="Q54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3739,7 +3742,7 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F55">
         <v>1.29</v>
@@ -3754,7 +3757,7 @@
         <v>2.996</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="M55">
         <v>2.0128</v>
@@ -3769,19 +3772,19 @@
         <v>5573594</v>
       </c>
       <c r="Q55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3795,7 +3798,7 @@
         <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F56">
         <v>0.138</v>
@@ -3810,7 +3813,7 @@
         <v>0.3444</v>
       </c>
       <c r="L56">
-        <v>0.135</v>
+        <v>0.1325</v>
       </c>
       <c r="M56">
         <v>0.22544</v>
@@ -3825,19 +3828,19 @@
         <v>5573594</v>
       </c>
       <c r="Q56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3851,7 +3854,7 @@
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F57">
         <v>0.138</v>
@@ -3866,7 +3869,7 @@
         <v>0.3444</v>
       </c>
       <c r="L57">
-        <v>0.135</v>
+        <v>0.1325</v>
       </c>
       <c r="M57">
         <v>0.22544</v>
@@ -3881,19 +3884,969 @@
         <v>5573594</v>
       </c>
       <c r="Q57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58">
+        <v>0.036</v>
+      </c>
+      <c r="G58">
+        <v>0.0459444444444444</v>
+      </c>
+      <c r="H58">
+        <v>0.202</v>
+      </c>
+      <c r="I58">
+        <v>0.1242</v>
+      </c>
+      <c r="L58">
+        <v>0.043</v>
+      </c>
+      <c r="M58">
+        <v>0.06132</v>
+      </c>
+      <c r="N58">
+        <v>0.07568</v>
+      </c>
+      <c r="O58">
+        <v>1773468</v>
+      </c>
+      <c r="P58">
+        <v>5573594</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>48</v>
+      </c>
+      <c r="R58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S58" t="s">
+        <v>50</v>
+      </c>
+      <c r="T58" t="s">
+        <v>51</v>
+      </c>
+      <c r="U58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59">
+        <v>0.036</v>
+      </c>
+      <c r="G59">
+        <v>0.0459444444444444</v>
+      </c>
+      <c r="H59">
+        <v>0.202</v>
+      </c>
+      <c r="I59">
+        <v>0.1242</v>
+      </c>
+      <c r="L59">
+        <v>0.043</v>
+      </c>
+      <c r="M59">
+        <v>0.06132</v>
+      </c>
+      <c r="N59">
+        <v>0.07568</v>
+      </c>
+      <c r="O59">
+        <v>1773468</v>
+      </c>
+      <c r="P59">
+        <v>5573594</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>48</v>
+      </c>
+      <c r="R59" t="s">
+        <v>49</v>
+      </c>
+      <c r="S59" t="s">
+        <v>50</v>
+      </c>
+      <c r="T59" t="s">
+        <v>51</v>
+      </c>
+      <c r="U59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60">
+        <v>211.8</v>
+      </c>
+      <c r="G60">
+        <v>768.101452646408</v>
+      </c>
+      <c r="H60">
+        <v>13072.878442906</v>
+      </c>
+      <c r="I60">
+        <v>4060</v>
+      </c>
+      <c r="J60">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="K60">
+        <v>40.7407407407407</v>
+      </c>
+      <c r="L60">
+        <v>212</v>
+      </c>
+      <c r="M60">
+        <v>639.184</v>
+      </c>
+      <c r="N60">
+        <v>1684.344</v>
+      </c>
+      <c r="O60">
+        <v>1773468</v>
+      </c>
+      <c r="P60">
+        <v>5573594</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>48</v>
+      </c>
+      <c r="R60" t="s">
+        <v>49</v>
+      </c>
+      <c r="S60" t="s">
+        <v>50</v>
+      </c>
+      <c r="T60" t="s">
+        <v>51</v>
+      </c>
+      <c r="U60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61">
+        <v>211.8</v>
+      </c>
+      <c r="G61">
+        <v>768.101452646408</v>
+      </c>
+      <c r="H61">
+        <v>13072.878442906</v>
+      </c>
+      <c r="I61">
+        <v>4060</v>
+      </c>
+      <c r="J61">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="K61">
+        <v>40.7407407407407</v>
+      </c>
+      <c r="L61">
+        <v>212</v>
+      </c>
+      <c r="M61">
+        <v>639.184</v>
+      </c>
+      <c r="N61">
+        <v>1684.344</v>
+      </c>
+      <c r="O61">
+        <v>1773468</v>
+      </c>
+      <c r="P61">
+        <v>5573594</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>48</v>
+      </c>
+      <c r="R61" t="s">
+        <v>49</v>
+      </c>
+      <c r="S61" t="s">
+        <v>50</v>
+      </c>
+      <c r="T61" t="s">
+        <v>51</v>
+      </c>
+      <c r="U61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62">
+        <v>211.8</v>
+      </c>
+      <c r="G62">
+        <v>768.101452646408</v>
+      </c>
+      <c r="H62">
+        <v>13072.878442906</v>
+      </c>
+      <c r="I62">
+        <v>4060</v>
+      </c>
+      <c r="J62">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="K62">
+        <v>40.7407407407407</v>
+      </c>
+      <c r="L62">
+        <v>212</v>
+      </c>
+      <c r="M62">
+        <v>639.184</v>
+      </c>
+      <c r="N62">
+        <v>1684.344</v>
+      </c>
+      <c r="O62">
+        <v>1773468</v>
+      </c>
+      <c r="P62">
+        <v>5573594</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>48</v>
+      </c>
+      <c r="R62" t="s">
+        <v>49</v>
+      </c>
+      <c r="S62" t="s">
+        <v>50</v>
+      </c>
+      <c r="T62" t="s">
+        <v>51</v>
+      </c>
+      <c r="U62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63">
+        <v>211.8</v>
+      </c>
+      <c r="G63">
+        <v>768.101452646408</v>
+      </c>
+      <c r="H63">
+        <v>13072.878442906</v>
+      </c>
+      <c r="I63">
+        <v>4060</v>
+      </c>
+      <c r="J63">
+        <v>22.2222222222222</v>
+      </c>
+      <c r="K63">
+        <v>40.7407407407407</v>
+      </c>
+      <c r="L63">
+        <v>212</v>
+      </c>
+      <c r="M63">
+        <v>639.184</v>
+      </c>
+      <c r="N63">
+        <v>1684.344</v>
+      </c>
+      <c r="O63">
+        <v>1773468</v>
+      </c>
+      <c r="P63">
+        <v>5573594</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>48</v>
+      </c>
+      <c r="R63" t="s">
+        <v>49</v>
+      </c>
+      <c r="S63" t="s">
+        <v>50</v>
+      </c>
+      <c r="T63" t="s">
+        <v>51</v>
+      </c>
+      <c r="U63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64">
+        <v>0.01557</v>
+      </c>
+      <c r="G64">
+        <v>0.0352620078910668</v>
+      </c>
+      <c r="H64">
+        <v>0.5</v>
+      </c>
+      <c r="I64">
+        <v>0.08210000000000001</v>
+      </c>
+      <c r="L64">
+        <v>0.01047</v>
+      </c>
+      <c r="M64">
+        <v>0.0622</v>
+      </c>
+      <c r="N64">
+        <v>0.07471</v>
+      </c>
+      <c r="O64">
+        <v>1773468</v>
+      </c>
+      <c r="P64">
+        <v>5573594</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>48</v>
+      </c>
+      <c r="R64" t="s">
+        <v>49</v>
+      </c>
+      <c r="S64" t="s">
+        <v>50</v>
+      </c>
+      <c r="T64" t="s">
+        <v>51</v>
+      </c>
+      <c r="U64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65">
+        <v>0.01557</v>
+      </c>
+      <c r="G65">
+        <v>0.0352620078910668</v>
+      </c>
+      <c r="H65">
+        <v>0.5</v>
+      </c>
+      <c r="I65">
+        <v>0.08210000000000001</v>
+      </c>
+      <c r="L65">
+        <v>0.01047</v>
+      </c>
+      <c r="M65">
+        <v>0.0622</v>
+      </c>
+      <c r="N65">
+        <v>0.07471</v>
+      </c>
+      <c r="O65">
+        <v>1773468</v>
+      </c>
+      <c r="P65">
+        <v>5573594</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>48</v>
+      </c>
+      <c r="R65" t="s">
+        <v>49</v>
+      </c>
+      <c r="S65" t="s">
+        <v>50</v>
+      </c>
+      <c r="T65" t="s">
+        <v>51</v>
+      </c>
+      <c r="U65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66">
+        <v>0.329</v>
+      </c>
+      <c r="G66">
+        <v>0.477375031358361</v>
+      </c>
+      <c r="H66">
+        <v>2.31</v>
+      </c>
+      <c r="I66">
+        <v>1.704</v>
+      </c>
+      <c r="L66">
+        <v>0.209</v>
+      </c>
+      <c r="M66">
+        <v>0.74924</v>
+      </c>
+      <c r="N66">
+        <v>1.2606</v>
+      </c>
+      <c r="O66">
+        <v>1773468</v>
+      </c>
+      <c r="P66">
+        <v>5573594</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>48</v>
+      </c>
+      <c r="R66" t="s">
+        <v>49</v>
+      </c>
+      <c r="S66" t="s">
+        <v>50</v>
+      </c>
+      <c r="T66" t="s">
+        <v>51</v>
+      </c>
+      <c r="U66" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67">
+        <v>0.329</v>
+      </c>
+      <c r="G67">
+        <v>0.477375031358361</v>
+      </c>
+      <c r="H67">
+        <v>2.31</v>
+      </c>
+      <c r="I67">
+        <v>1.704</v>
+      </c>
+      <c r="L67">
+        <v>0.209</v>
+      </c>
+      <c r="M67">
+        <v>0.74924</v>
+      </c>
+      <c r="N67">
+        <v>1.2606</v>
+      </c>
+      <c r="O67">
+        <v>1773468</v>
+      </c>
+      <c r="P67">
+        <v>5573594</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>48</v>
+      </c>
+      <c r="R67" t="s">
+        <v>49</v>
+      </c>
+      <c r="S67" t="s">
+        <v>50</v>
+      </c>
+      <c r="T67" t="s">
+        <v>51</v>
+      </c>
+      <c r="U67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68">
+        <v>0.385</v>
+      </c>
+      <c r="G68">
+        <v>0.541356317194511</v>
+      </c>
+      <c r="H68">
+        <v>2.43</v>
+      </c>
+      <c r="I68">
+        <v>1.88</v>
+      </c>
+      <c r="L68">
+        <v>0.23</v>
+      </c>
+      <c r="M68">
+        <v>0.8228</v>
+      </c>
+      <c r="N68">
+        <v>1.4442</v>
+      </c>
+      <c r="O68">
+        <v>1773468</v>
+      </c>
+      <c r="P68">
+        <v>5573594</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>48</v>
+      </c>
+      <c r="R68" t="s">
+        <v>49</v>
+      </c>
+      <c r="S68" t="s">
+        <v>50</v>
+      </c>
+      <c r="T68" t="s">
+        <v>51</v>
+      </c>
+      <c r="U68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69">
+        <v>0.385</v>
+      </c>
+      <c r="G69">
+        <v>0.541356317194511</v>
+      </c>
+      <c r="H69">
+        <v>2.43</v>
+      </c>
+      <c r="I69">
+        <v>1.88</v>
+      </c>
+      <c r="L69">
+        <v>0.23</v>
+      </c>
+      <c r="M69">
+        <v>0.8228</v>
+      </c>
+      <c r="N69">
+        <v>1.4442</v>
+      </c>
+      <c r="O69">
+        <v>1773468</v>
+      </c>
+      <c r="P69">
+        <v>5573594</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>48</v>
+      </c>
+      <c r="R69" t="s">
+        <v>49</v>
+      </c>
+      <c r="S69" t="s">
+        <v>50</v>
+      </c>
+      <c r="T69" t="s">
+        <v>51</v>
+      </c>
+      <c r="U69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70">
+        <v>1.235</v>
+      </c>
+      <c r="G70">
+        <v>1.44987037037037</v>
+      </c>
+      <c r="H70">
+        <v>3.6</v>
+      </c>
+      <c r="I70">
+        <v>2.996</v>
+      </c>
+      <c r="L70">
+        <v>1.17</v>
+      </c>
+      <c r="M70">
+        <v>1.9864</v>
+      </c>
+      <c r="N70">
+        <v>2.7636</v>
+      </c>
+      <c r="O70">
+        <v>1773468</v>
+      </c>
+      <c r="P70">
+        <v>5573594</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>48</v>
+      </c>
+      <c r="R70" t="s">
+        <v>49</v>
+      </c>
+      <c r="S70" t="s">
+        <v>50</v>
+      </c>
+      <c r="T70" t="s">
+        <v>51</v>
+      </c>
+      <c r="U70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71">
+        <v>1.235</v>
+      </c>
+      <c r="G71">
+        <v>1.44987037037037</v>
+      </c>
+      <c r="H71">
+        <v>3.6</v>
+      </c>
+      <c r="I71">
+        <v>2.996</v>
+      </c>
+      <c r="L71">
+        <v>1.17</v>
+      </c>
+      <c r="M71">
+        <v>1.9864</v>
+      </c>
+      <c r="N71">
+        <v>2.7636</v>
+      </c>
+      <c r="O71">
+        <v>1773468</v>
+      </c>
+      <c r="P71">
+        <v>5573594</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>48</v>
+      </c>
+      <c r="R71" t="s">
+        <v>49</v>
+      </c>
+      <c r="S71" t="s">
+        <v>50</v>
+      </c>
+      <c r="T71" t="s">
+        <v>51</v>
+      </c>
+      <c r="U71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72">
+        <v>0.1375</v>
+      </c>
+      <c r="G72">
+        <v>0.155259259259259</v>
+      </c>
+      <c r="H72">
+        <v>0.523</v>
+      </c>
+      <c r="I72">
+        <v>0.3444</v>
+      </c>
+      <c r="L72">
+        <v>0.135</v>
+      </c>
+      <c r="M72">
+        <v>0.22544</v>
+      </c>
+      <c r="N72">
+        <v>0.34036</v>
+      </c>
+      <c r="O72">
+        <v>1773468</v>
+      </c>
+      <c r="P72">
+        <v>5573594</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>48</v>
+      </c>
+      <c r="R72" t="s">
+        <v>49</v>
+      </c>
+      <c r="S72" t="s">
+        <v>50</v>
+      </c>
+      <c r="T72" t="s">
+        <v>51</v>
+      </c>
+      <c r="U72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73">
+        <v>0.1375</v>
+      </c>
+      <c r="G73">
+        <v>0.155259259259259</v>
+      </c>
+      <c r="H73">
+        <v>0.523</v>
+      </c>
+      <c r="I73">
+        <v>0.3444</v>
+      </c>
+      <c r="L73">
+        <v>0.135</v>
+      </c>
+      <c r="M73">
+        <v>0.22544</v>
+      </c>
+      <c r="N73">
+        <v>0.34036</v>
+      </c>
+      <c r="O73">
+        <v>1773468</v>
+      </c>
+      <c r="P73">
+        <v>5573594</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>48</v>
+      </c>
+      <c r="R73" t="s">
+        <v>49</v>
+      </c>
+      <c r="S73" t="s">
+        <v>50</v>
+      </c>
+      <c r="T73" t="s">
+        <v>51</v>
+      </c>
+      <c r="U73" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
